--- a/imagenesSeg/si/RE/caracterForma_re.xlsx
+++ b/imagenesSeg/si/RE/caracterForma_re.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Daniela\Tesis\Trabajo-de-grado_Artefactos\imagenesSeg\si\RE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nataly\Documents\Trabajo-de-grado_Artefactos\imagenesSeg\si\RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,27 +13,25 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.0" hidden="1">Hoja1!$C$1</definedName>
-    <definedName name="_xlchart.1" hidden="1">Hoja1!$D$3:$D$203</definedName>
-    <definedName name="_xlchart.10" hidden="1">Hoja1!$G$3:$G$203</definedName>
-    <definedName name="_xlchart.2" hidden="1">Hoja1!$G$1</definedName>
-    <definedName name="_xlchart.3" hidden="1">Hoja1!$H$3:$H$203</definedName>
-    <definedName name="_xlchart.4" hidden="1">Hoja1!$C$1</definedName>
-    <definedName name="_xlchart.5" hidden="1">Hoja1!$C$3:$C$203</definedName>
-    <definedName name="_xlchart.6" hidden="1">Hoja1!$G$1</definedName>
-    <definedName name="_xlchart.7" hidden="1">Hoja1!$G$3:$G$203</definedName>
-    <definedName name="_xlchart.8" hidden="1">Hoja1!$C$3:$C$203</definedName>
-    <definedName name="_xlchart.9" hidden="1">Hoja1!$G$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Hoja1!$C$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Hoja1!$C$3:$C$203</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Hoja1!$G$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Hoja1!$G$3:$G$203</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Hoja1!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Hoja1!$D$3:$D$203</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Hoja1!$G$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Hoja1!$H$3:$H$203</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8240" uniqueCount="6047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8246" uniqueCount="6047">
   <si>
     <t>Archivo</t>
   </si>
@@ -30382,17 +30380,17 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.7</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -30419,7 +30417,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{13374BB1-C224-4006-951D-77F265356912}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.4</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>re</cx:v>
             </cx:txData>
           </cx:tx>
@@ -30432,7 +30430,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-0320-4A1B-B04B-259FA3B65058}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.6</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>otros</cx:v>
             </cx:txData>
           </cx:tx>
@@ -30457,17 +30455,17 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.1</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.3</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -30494,7 +30492,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C6EB4DEB-87FE-4EB4-B1D7-4AD58DC118F0}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.0</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>re</cx:v>
             </cx:txData>
           </cx:tx>
@@ -30507,7 +30505,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{00000001-91E5-41E8-B264-3BF633FDA4B4}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.2</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>otros</cx:v>
             </cx:txData>
           </cx:tx>
@@ -31606,7 +31604,7 @@
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" Requires="cx">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Gráfico 1"/>
@@ -31618,7 +31616,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -31649,7 +31647,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="es-CO" sz="1100"/>
                 <a:t>Este gráfico no está disponible en su versión de Excel.
 Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
               </a:r>
@@ -31674,7 +31672,7 @@
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" Requires="cx">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Gráfico 2"/>
@@ -31686,7 +31684,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -31717,7 +31715,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="es-CO" sz="1100"/>
                 <a:t>Este gráfico no está disponible en su versión de Excel.
 Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
               </a:r>
@@ -73490,13 +73488,2874 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E203"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E203"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>6045</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>6046</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1194</v>
+      </c>
+      <c r="B3">
+        <v>146.12624168395999</v>
+      </c>
+      <c r="D3" s="3">
+        <v>194680</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4878.7550659179688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1430.5</v>
+      </c>
+      <c r="B4">
+        <v>154.6960372924805</v>
+      </c>
+      <c r="D4" s="3">
+        <v>286541.5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3821.694702148438</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4991</v>
+      </c>
+      <c r="B5">
+        <v>441.01511669158941</v>
+      </c>
+      <c r="D5" s="3">
+        <v>38859</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1139.6477584838869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>514</v>
+      </c>
+      <c r="B6">
+        <v>89.892153739929199</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5456</v>
+      </c>
+      <c r="E6" s="3">
+        <v>347.45249938964838</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>672</v>
+      </c>
+      <c r="B7">
+        <v>106.6945202350616</v>
+      </c>
+      <c r="D7" s="3">
+        <v>19891</v>
+      </c>
+      <c r="E7" s="3">
+        <v>548.60374069213867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3166.5</v>
+      </c>
+      <c r="B8">
+        <v>293.71505165100098</v>
+      </c>
+      <c r="D8" s="3">
+        <v>28532</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2998.0075531005859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2218</v>
+      </c>
+      <c r="B9">
+        <v>191.92761468887329</v>
+      </c>
+      <c r="D9" s="3">
+        <v>20278.5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>643.49772453308105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>623</v>
+      </c>
+      <c r="B10">
+        <v>93.729228019714355</v>
+      </c>
+      <c r="D10" s="3">
+        <v>76811.5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3615.2325134277339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>830.5</v>
+      </c>
+      <c r="B11">
+        <v>106.7137660980225</v>
+      </c>
+      <c r="D11" s="3">
+        <v>97928</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3024.7953910827641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>574</v>
+      </c>
+      <c r="B12">
+        <v>93.870463371276855</v>
+      </c>
+      <c r="D12" s="3">
+        <v>91821</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3071.2951049804692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>854.5</v>
+      </c>
+      <c r="B13">
+        <v>110.7117071151733</v>
+      </c>
+      <c r="D13" s="3">
+        <v>63106.5</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1095.290885925293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>847</v>
+      </c>
+      <c r="B14">
+        <v>112.43804264068601</v>
+      </c>
+      <c r="D14" s="3">
+        <v>68041</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1097.0769195556641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>870</v>
+      </c>
+      <c r="B15">
+        <v>113.01655292510991</v>
+      </c>
+      <c r="D15" s="3">
+        <v>104969.5</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1357.4835891723631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6827.5</v>
+      </c>
+      <c r="B16">
+        <v>334.63707256317139</v>
+      </c>
+      <c r="D16" s="3">
+        <v>140843.5</v>
+      </c>
+      <c r="E16" s="3">
+        <v>3778.684448242188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15223.5</v>
+      </c>
+      <c r="B17">
+        <v>563.78281784057617</v>
+      </c>
+      <c r="D17" s="3">
+        <v>30577</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1324.5999298095701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>7.6568541526794434</v>
+      </c>
+      <c r="D18" s="3">
+        <v>53350.5</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1129.4110813140869</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>13470</v>
+      </c>
+      <c r="B19">
+        <v>2981.9316787719731</v>
+      </c>
+      <c r="D19" s="3">
+        <v>10534.5</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1331.5596580505371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3916</v>
+      </c>
+      <c r="B20">
+        <v>360.68564128875732</v>
+      </c>
+      <c r="D20" s="3">
+        <v>267995</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4152.3689575195313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>555</v>
+      </c>
+      <c r="B21">
+        <v>90.052435874938965</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4801</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1281.3662261962891</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>975.5</v>
+      </c>
+      <c r="B22">
+        <v>126.07234525680541</v>
+      </c>
+      <c r="D22" s="3">
+        <v>191861</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4403.473503112793</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1064.5</v>
+      </c>
+      <c r="B23">
+        <v>133.74580574035639</v>
+      </c>
+      <c r="D23" s="3">
+        <v>6747</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1263.7429046630859</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>706</v>
+      </c>
+      <c r="B24">
+        <v>105.8739576339722</v>
+      </c>
+      <c r="D24" s="3">
+        <v>13758.5</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1105.1996765136721</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>6280.5</v>
+      </c>
+      <c r="B25">
+        <v>653.72119998931885</v>
+      </c>
+      <c r="D25" s="3">
+        <v>198496.5</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2169.9282760620122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>638.5</v>
+      </c>
+      <c r="B26">
+        <v>99.275068283081055</v>
+      </c>
+      <c r="D26" s="3">
+        <v>4543.5</v>
+      </c>
+      <c r="E26" s="3">
+        <v>327.06489181518549</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>226.5</v>
+      </c>
+      <c r="B27">
+        <v>60.520647764205933</v>
+      </c>
+      <c r="D27" s="3">
+        <v>30929.5</v>
+      </c>
+      <c r="E27" s="3">
+        <v>776.82976913452148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>257.5</v>
+      </c>
+      <c r="B28">
+        <v>59.345493316650391</v>
+      </c>
+      <c r="D28" s="3">
+        <v>60607</v>
+      </c>
+      <c r="E28" s="3">
+        <v>983.43484115600586</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>221.5</v>
+      </c>
+      <c r="B29">
+        <v>57.653588056564331</v>
+      </c>
+      <c r="D29" s="3">
+        <v>3563</v>
+      </c>
+      <c r="E29" s="3">
+        <v>340.77566719055181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>5.6568541526794434</v>
+      </c>
+      <c r="D30" s="3">
+        <v>5856</v>
+      </c>
+      <c r="E30" s="3">
+        <v>520.86968994140625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>544.5</v>
+      </c>
+      <c r="B31">
+        <v>88.085393905639648</v>
+      </c>
+      <c r="D31" s="3">
+        <v>14460</v>
+      </c>
+      <c r="E31" s="3">
+        <v>711.50711822509766</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>565.5</v>
+      </c>
+      <c r="B32">
+        <v>90.472601175308228</v>
+      </c>
+      <c r="D32" s="3">
+        <v>5829</v>
+      </c>
+      <c r="E32" s="3">
+        <v>313.58186149597168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3789.5</v>
+      </c>
+      <c r="B33">
+        <v>357.74063968658447</v>
+      </c>
+      <c r="D33" s="3">
+        <v>126346.5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2984.0452270507808</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3685.5</v>
+      </c>
+      <c r="B34">
+        <v>243.45494174957281</v>
+      </c>
+      <c r="D34" s="3">
+        <v>12392</v>
+      </c>
+      <c r="E34" s="3">
+        <v>3157.286865234375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>127</v>
+      </c>
+      <c r="B35">
+        <v>43.928073644638062</v>
+      </c>
+      <c r="D35" s="3">
+        <v>6127</v>
+      </c>
+      <c r="E35" s="3">
+        <v>371.40251350402832</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1371.5</v>
+      </c>
+      <c r="B36">
+        <v>230.0349364280701</v>
+      </c>
+      <c r="D36" s="3">
+        <v>38145</v>
+      </c>
+      <c r="E36" s="3">
+        <v>958.80579566955566</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>6892</v>
+      </c>
+      <c r="B37">
+        <v>341.09288215637213</v>
+      </c>
+      <c r="D37" s="3">
+        <v>109279</v>
+      </c>
+      <c r="E37" s="3">
+        <v>1368.206680297852</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1829</v>
+      </c>
+      <c r="B38">
+        <v>192.1141600608826</v>
+      </c>
+      <c r="D38" s="3">
+        <v>118671</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3075.5124969482422</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>602</v>
+      </c>
+      <c r="B39">
+        <v>98.979604721069336</v>
+      </c>
+      <c r="D39" s="3">
+        <v>170958.5</v>
+      </c>
+      <c r="E39" s="3">
+        <v>3718.737297058105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>764.5</v>
+      </c>
+      <c r="B40">
+        <v>104.8182559013367</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3616.5</v>
+      </c>
+      <c r="E40" s="3">
+        <v>316.40850067138672</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>717</v>
+      </c>
+      <c r="B41">
+        <v>101.7362744808197</v>
+      </c>
+      <c r="D41" s="3">
+        <v>4217.5</v>
+      </c>
+      <c r="E41" s="3">
+        <v>366.20524978637701</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3381</v>
+      </c>
+      <c r="B42">
+        <v>299.97661018371582</v>
+      </c>
+      <c r="D42" s="3">
+        <v>100197.5</v>
+      </c>
+      <c r="E42" s="3">
+        <v>2896.5636596679692</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>59.5</v>
+      </c>
+      <c r="B43">
+        <v>31.67661893367767</v>
+      </c>
+      <c r="D43" s="3">
+        <v>38141.5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>963.04022884368896</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>392</v>
+      </c>
+      <c r="B44">
+        <v>95.332127094268799</v>
+      </c>
+      <c r="D44" s="3">
+        <v>905</v>
+      </c>
+      <c r="E44" s="3">
+        <v>150.69182682037351</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>451</v>
+      </c>
+      <c r="B45">
+        <v>81.596636056900024</v>
+      </c>
+      <c r="D45" s="3">
+        <v>11806</v>
+      </c>
+      <c r="E45" s="3">
+        <v>757.61591243743896</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>842</v>
+      </c>
+      <c r="B46">
+        <v>115.2215270996094</v>
+      </c>
+      <c r="D46" s="3">
+        <v>426</v>
+      </c>
+      <c r="E46" s="3">
+        <v>93.327404022216797</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2675.5</v>
+      </c>
+      <c r="B47">
+        <v>265.56347227096558</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1555.5</v>
+      </c>
+      <c r="E47" s="3">
+        <v>243.8579378128052</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1584.5</v>
+      </c>
+      <c r="B48">
+        <v>184.99406814575201</v>
+      </c>
+      <c r="D48" s="3">
+        <v>74463</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2063.224285125732</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2887.5</v>
+      </c>
+      <c r="B49">
+        <v>263.96968507766718</v>
+      </c>
+      <c r="D49" s="3">
+        <v>50012</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1104.9581356048579</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>5899.5</v>
+      </c>
+      <c r="B50">
+        <v>301.77392578125</v>
+      </c>
+      <c r="D50" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E50" s="3">
+        <v>961.15849685668945</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>735</v>
+      </c>
+      <c r="B51">
+        <v>106.58624887466431</v>
+      </c>
+      <c r="D51" s="3">
+        <v>9386</v>
+      </c>
+      <c r="E51" s="3">
+        <v>455.66859722137451</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1391</v>
+      </c>
+      <c r="B52">
+        <v>190.19104242324829</v>
+      </c>
+      <c r="D52" s="3">
+        <v>4401.5</v>
+      </c>
+      <c r="E52" s="3">
+        <v>356.08680820465088</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>853.5</v>
+      </c>
+      <c r="B53">
+        <v>113.2642612457275</v>
+      </c>
+      <c r="D53" s="3">
+        <v>86439</v>
+      </c>
+      <c r="E53" s="3">
+        <v>1483.558547973633</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>662.5</v>
+      </c>
+      <c r="B54">
+        <v>101.3084287643433</v>
+      </c>
+      <c r="D54" s="3">
+        <v>1056</v>
+      </c>
+      <c r="E54" s="3">
+        <v>117.1135387420654</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>414</v>
+      </c>
+      <c r="B55">
+        <v>83.697715759277344</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1020</v>
+      </c>
+      <c r="E55" s="3">
+        <v>159.01557636260989</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1523</v>
+      </c>
+      <c r="B56">
+        <v>166.10829019546509</v>
+      </c>
+      <c r="D56" s="3">
+        <v>45201.5</v>
+      </c>
+      <c r="E56" s="3">
+        <v>1344.973213195801</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2069.5</v>
+      </c>
+      <c r="B57">
+        <v>210.5600452423096</v>
+      </c>
+      <c r="D57" s="3">
+        <v>7576.5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>444.5074348449707</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>5.6568541526794434</v>
+      </c>
+      <c r="D58" s="3">
+        <v>6756</v>
+      </c>
+      <c r="E58" s="3">
+        <v>502.17015266418463</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>5.6568541526794434</v>
+      </c>
+      <c r="D59" s="3">
+        <v>15537</v>
+      </c>
+      <c r="E59" s="3">
+        <v>578.75764465332031</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1230.5</v>
+      </c>
+      <c r="B60">
+        <v>139.75764894485471</v>
+      </c>
+      <c r="D60" s="3">
+        <v>40109</v>
+      </c>
+      <c r="E60" s="3">
+        <v>880.85002899169922</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>816.5</v>
+      </c>
+      <c r="B61">
+        <v>107.0731248855591</v>
+      </c>
+      <c r="D61" s="3">
+        <v>36133.5</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1418.3402366638179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>5588</v>
+      </c>
+      <c r="B62">
+        <v>421.11394214630133</v>
+      </c>
+      <c r="D62" s="3">
+        <v>30449</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1144.112609863281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>943</v>
+      </c>
+      <c r="B63">
+        <v>113.3293027877808</v>
+      </c>
+      <c r="D63" s="3">
+        <v>48883.5</v>
+      </c>
+      <c r="E63" s="3">
+        <v>906.02614593505859</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>726</v>
+      </c>
+      <c r="B64">
+        <v>100.0255048274994</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2</v>
+      </c>
+      <c r="E64" s="3">
+        <v>5.6568541526794434</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>980</v>
+      </c>
+      <c r="B65">
+        <v>119.1260919570923</v>
+      </c>
+      <c r="D65" s="3">
+        <v>11012.5</v>
+      </c>
+      <c r="E65" s="3">
+        <v>773.99343204498291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>512</v>
+      </c>
+      <c r="B66">
+        <v>84.985936164855957</v>
+      </c>
+      <c r="D66" s="3">
+        <v>24179</v>
+      </c>
+      <c r="E66" s="3">
+        <v>687.59637832641602</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>519</v>
+      </c>
+      <c r="B67">
+        <v>89.106298446655273</v>
+      </c>
+      <c r="D67" s="3">
+        <v>35310</v>
+      </c>
+      <c r="E67" s="3">
+        <v>852.55987548828125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1252</v>
+      </c>
+      <c r="B68">
+        <v>157.8987412452698</v>
+      </c>
+      <c r="D68" s="3">
+        <v>12960.5</v>
+      </c>
+      <c r="E68" s="3">
+        <v>544.77612686157227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>8457</v>
+      </c>
+      <c r="B69">
+        <v>728.99112796783447</v>
+      </c>
+      <c r="D69" s="3">
+        <v>18220.5</v>
+      </c>
+      <c r="E69" s="3">
+        <v>588.75076293945313</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>717</v>
+      </c>
+      <c r="B70">
+        <v>101.2397270202637</v>
+      </c>
+      <c r="D70" s="3">
+        <v>440967.5</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2754.5373840332031</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2008</v>
+      </c>
+      <c r="B71">
+        <v>250.53180885314941</v>
+      </c>
+      <c r="D71" s="4">
+        <v>153974.5</v>
+      </c>
+      <c r="E71" s="4">
+        <v>4630.3681182861328</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>424.5</v>
+      </c>
+      <c r="B72">
+        <v>82.542430877685547</v>
+      </c>
+      <c r="D72" s="4">
+        <v>22610</v>
+      </c>
+      <c r="E72" s="4">
+        <v>671.97783660888672</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>3595.5</v>
+      </c>
+      <c r="B73">
+        <v>267.64387512207031</v>
+      </c>
+      <c r="D73" s="4">
+        <v>25053.5</v>
+      </c>
+      <c r="E73" s="4">
+        <v>701.41965484619141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>1022</v>
+      </c>
+      <c r="D74" s="4">
+        <v>31101.5</v>
+      </c>
+      <c r="E74" s="4">
+        <v>746.10582733154297</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>438.5</v>
+      </c>
+      <c r="B75">
+        <v>91.710493087768555</v>
+      </c>
+      <c r="D75" s="4">
+        <v>38557.5</v>
+      </c>
+      <c r="E75" s="4">
+        <v>935.55992889404297</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>5771</v>
+      </c>
+      <c r="B76">
+        <v>329.12160968780518</v>
+      </c>
+      <c r="D76" s="4">
+        <v>37117</v>
+      </c>
+      <c r="E76" s="4">
+        <v>951.50802612304688</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>964.5</v>
+      </c>
+      <c r="B77">
+        <v>123.53347015380859</v>
+      </c>
+      <c r="D77" s="4">
+        <v>15879</v>
+      </c>
+      <c r="E77" s="4">
+        <v>1349.5092964172361</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2366</v>
+      </c>
+      <c r="B78">
+        <v>221.82475090026861</v>
+      </c>
+      <c r="D78" s="4">
+        <v>22367</v>
+      </c>
+      <c r="E78" s="4">
+        <v>699.55244827270508</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>4350.5</v>
+      </c>
+      <c r="B79">
+        <v>339.71076965332031</v>
+      </c>
+      <c r="D79" s="4">
+        <v>51527.5</v>
+      </c>
+      <c r="E79" s="4">
+        <v>870.15804672241211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>4937</v>
+      </c>
+      <c r="B80">
+        <v>260.86715316772461</v>
+      </c>
+      <c r="D80" s="4">
+        <v>43178.5</v>
+      </c>
+      <c r="E80" s="4">
+        <v>947.93305969238281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>691</v>
+      </c>
+      <c r="B81">
+        <v>102.2956008911133</v>
+      </c>
+      <c r="D81" s="4">
+        <v>25250</v>
+      </c>
+      <c r="E81" s="4">
+        <v>711.45670700073242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>800</v>
+      </c>
+      <c r="B82">
+        <v>112.5925788879395</v>
+      </c>
+      <c r="D82" s="4">
+        <v>32845.5</v>
+      </c>
+      <c r="E82" s="4">
+        <v>786.64854431152344</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>4089.5</v>
+      </c>
+      <c r="B83">
+        <v>334.65326690673828</v>
+      </c>
+      <c r="D83" s="4">
+        <v>36530</v>
+      </c>
+      <c r="E83" s="4">
+        <v>914.22208404541016</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2879.5</v>
+      </c>
+      <c r="B84">
+        <v>218.08266258239749</v>
+      </c>
+      <c r="D84" s="4">
+        <v>37535</v>
+      </c>
+      <c r="E84" s="4">
+        <v>957.35781860351563</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2922</v>
+      </c>
+      <c r="B85">
+        <v>327.18197774887079</v>
+      </c>
+      <c r="D85" s="4">
+        <v>24928</v>
+      </c>
+      <c r="E85" s="4">
+        <v>709.27236938476563</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4211</v>
+      </c>
+      <c r="B86">
+        <v>300.81842613220209</v>
+      </c>
+      <c r="D86" s="4">
+        <v>32240</v>
+      </c>
+      <c r="E86" s="4">
+        <v>759.2862548828125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>6435</v>
+      </c>
+      <c r="B87">
+        <v>343.49539566040039</v>
+      </c>
+      <c r="D87" s="4">
+        <v>35196</v>
+      </c>
+      <c r="E87" s="4">
+        <v>858.00226593017578</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>9853</v>
+      </c>
+      <c r="B88">
+        <v>430.69459533691412</v>
+      </c>
+      <c r="D88" s="4">
+        <v>28695</v>
+      </c>
+      <c r="E88" s="4">
+        <v>890.71117401123047</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>45</v>
+      </c>
+      <c r="B89">
+        <v>30.97056245803833</v>
+      </c>
+      <c r="D89" s="4">
+        <v>35342.5</v>
+      </c>
+      <c r="E89" s="4">
+        <v>763.24501800537109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>529</v>
+      </c>
+      <c r="B90">
+        <v>89.601641654968262</v>
+      </c>
+      <c r="D90" s="4">
+        <v>42635.5</v>
+      </c>
+      <c r="E90" s="4">
+        <v>927.13851547241211</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2601</v>
+      </c>
+      <c r="B91">
+        <v>209.573860168457</v>
+      </c>
+      <c r="D91" s="4">
+        <v>42254.5</v>
+      </c>
+      <c r="E91" s="4">
+        <v>1027.1761245727539</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1593.5</v>
+      </c>
+      <c r="B92">
+        <v>207.21492862701419</v>
+      </c>
+      <c r="D92" s="4">
+        <v>27651</v>
+      </c>
+      <c r="E92" s="4">
+        <v>731.50736618041992</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2626</v>
+      </c>
+      <c r="B93">
+        <v>213.78092670440671</v>
+      </c>
+      <c r="D93" s="4">
+        <v>30839</v>
+      </c>
+      <c r="E93" s="4">
+        <v>709.82125091552734</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>943.5</v>
+      </c>
+      <c r="B94">
+        <v>127.5907707214355</v>
+      </c>
+      <c r="D94" s="4">
+        <v>38091</v>
+      </c>
+      <c r="E94" s="4">
+        <v>872.23818206787109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>7689</v>
+      </c>
+      <c r="B95">
+        <v>412.16716957092291</v>
+      </c>
+      <c r="D95" s="4">
+        <v>27159</v>
+      </c>
+      <c r="E95" s="4">
+        <v>865.59336090087891</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>486</v>
+      </c>
+      <c r="B96">
+        <v>1072.5844421386721</v>
+      </c>
+      <c r="D96" s="4">
+        <v>24413</v>
+      </c>
+      <c r="E96" s="4">
+        <v>683.8270149230957</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>997.5</v>
+      </c>
+      <c r="B97">
+        <v>154.5880489349365</v>
+      </c>
+      <c r="D97" s="4">
+        <v>36810.5</v>
+      </c>
+      <c r="E97" s="4">
+        <v>795.77953338623047</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>269</v>
+      </c>
+      <c r="B98">
+        <v>65.050268650054932</v>
+      </c>
+      <c r="D98" s="4">
+        <v>40046</v>
+      </c>
+      <c r="E98" s="4">
+        <v>917.70348739624023</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>558</v>
+      </c>
+      <c r="B99">
+        <v>99.534091472625732</v>
+      </c>
+      <c r="D99" s="4">
+        <v>40485.5</v>
+      </c>
+      <c r="E99" s="4">
+        <v>999.36071014404297</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>789</v>
+      </c>
+      <c r="B100">
+        <v>113.69636917114261</v>
+      </c>
+      <c r="D100" s="4">
+        <v>24764.5</v>
+      </c>
+      <c r="E100" s="4">
+        <v>725.78083419799805</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>2696</v>
+      </c>
+      <c r="D101" s="4">
+        <v>33104</v>
+      </c>
+      <c r="E101" s="4">
+        <v>753.15920257568359</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1425.5</v>
+      </c>
+      <c r="B102">
+        <v>171.2134819030762</v>
+      </c>
+      <c r="D102" s="4">
+        <v>36823.5</v>
+      </c>
+      <c r="E102" s="4">
+        <v>850.95247268676758</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>3859</v>
+      </c>
+      <c r="B103">
+        <v>267.69808769226069</v>
+      </c>
+      <c r="D103" s="4">
+        <v>24412.5</v>
+      </c>
+      <c r="E103" s="4">
+        <v>819.8222541809082</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>249.5</v>
+      </c>
+      <c r="B104">
+        <v>62.006171345710747</v>
+      </c>
+      <c r="D104" s="4">
+        <v>23479</v>
+      </c>
+      <c r="E104" s="4">
+        <v>701.44184875488281</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>3227.5</v>
+      </c>
+      <c r="B105">
+        <v>233.6391353607178</v>
+      </c>
+      <c r="D105" s="4">
+        <v>36559</v>
+      </c>
+      <c r="E105" s="4">
+        <v>798.58961868286133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1804.5</v>
+      </c>
+      <c r="B106">
+        <v>162.35279560089111</v>
+      </c>
+      <c r="D106" s="4">
+        <v>41150.5</v>
+      </c>
+      <c r="E106" s="4">
+        <v>914.26712036132813</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2559.5</v>
+      </c>
+      <c r="B107">
+        <v>217.4133429527283</v>
+      </c>
+      <c r="D107" s="4">
+        <v>38727.5</v>
+      </c>
+      <c r="E107" s="4">
+        <v>983.70977783203125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1900</v>
+      </c>
+      <c r="B108">
+        <v>2727.5081825256352</v>
+      </c>
+      <c r="D108" s="4">
+        <v>23674</v>
+      </c>
+      <c r="E108" s="4">
+        <v>700.26857376098633</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>941</v>
+      </c>
+      <c r="B109">
+        <v>115.6871843338013</v>
+      </c>
+      <c r="D109" s="4">
+        <v>36059</v>
+      </c>
+      <c r="E109" s="4">
+        <v>789.55044174194336</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2</v>
+      </c>
+      <c r="B110">
+        <v>5.6568541526794434</v>
+      </c>
+      <c r="D110" s="4">
+        <v>38943</v>
+      </c>
+      <c r="E110" s="4">
+        <v>893.9046630859375</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>4</v>
+      </c>
+      <c r="B111">
+        <v>7.6568541526794434</v>
+      </c>
+      <c r="D111" s="4">
+        <v>42336.5</v>
+      </c>
+      <c r="E111" s="4">
+        <v>1006.37614440918</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>3725</v>
+      </c>
+      <c r="B112">
+        <v>365.67319011688232</v>
+      </c>
+      <c r="D112" s="4">
+        <v>103921.5</v>
+      </c>
+      <c r="E112" s="4">
+        <v>2300.489883422852</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1698</v>
+      </c>
+      <c r="B113">
+        <v>2825.375350952148</v>
+      </c>
+      <c r="D113" s="4">
+        <v>21562.5</v>
+      </c>
+      <c r="E113" s="4">
+        <v>667.46559143066406</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>578.5</v>
+      </c>
+      <c r="B114">
+        <v>92.158029556274414</v>
+      </c>
+      <c r="D114" s="4">
+        <v>16947</v>
+      </c>
+      <c r="E114" s="4">
+        <v>2746.08228302002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>469</v>
+      </c>
+      <c r="B115">
+        <v>94.420979499816895</v>
+      </c>
+      <c r="D115" s="4">
+        <v>50688</v>
+      </c>
+      <c r="E115" s="4">
+        <v>915.15084075927734</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1246</v>
+      </c>
+      <c r="B116">
+        <v>133.92534255981451</v>
+      </c>
+      <c r="D116" s="4">
+        <v>46388.5</v>
+      </c>
+      <c r="E116" s="4">
+        <v>1237.453018188477</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1087.5</v>
+      </c>
+      <c r="B117">
+        <v>131.7774963378906</v>
+      </c>
+      <c r="D117" s="4">
+        <v>7741</v>
+      </c>
+      <c r="E117" s="4">
+        <v>379.93432426452642</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2517.5</v>
+      </c>
+      <c r="B118">
+        <v>221.63544034957889</v>
+      </c>
+      <c r="D118" s="4">
+        <v>53888</v>
+      </c>
+      <c r="E118" s="4">
+        <v>921.5814208984375</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>405.5</v>
+      </c>
+      <c r="B119">
+        <v>100.6237623691559</v>
+      </c>
+      <c r="D119" s="4">
+        <v>43107</v>
+      </c>
+      <c r="E119" s="4">
+        <v>1052.606338500977</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>169</v>
+      </c>
+      <c r="B120">
+        <v>51.059096813201897</v>
+      </c>
+      <c r="D120" s="4">
+        <v>24287.5</v>
+      </c>
+      <c r="E120" s="4">
+        <v>677.46127700805664</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1162.5</v>
+      </c>
+      <c r="B121">
+        <v>174.46006679534909</v>
+      </c>
+      <c r="D121" s="4">
+        <v>37308</v>
+      </c>
+      <c r="E121" s="4">
+        <v>794.89368057250977</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>11020.5</v>
+      </c>
+      <c r="B122">
+        <v>512.24839687347412</v>
+      </c>
+      <c r="D122" s="4">
+        <v>44418</v>
+      </c>
+      <c r="E122" s="4">
+        <v>928.87290954589844</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2559</v>
+      </c>
+      <c r="B123">
+        <v>194.49347114562991</v>
+      </c>
+      <c r="D123" s="4">
+        <v>42060.5</v>
+      </c>
+      <c r="E123" s="4">
+        <v>1001.179119110107</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>840</v>
+      </c>
+      <c r="B124">
+        <v>124.3315296173096</v>
+      </c>
+      <c r="D124" s="4">
+        <v>22240.5</v>
+      </c>
+      <c r="E124" s="4">
+        <v>681.41587829589844</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2368</v>
+      </c>
+      <c r="B125">
+        <v>235.45769596099851</v>
+      </c>
+      <c r="D125" s="4">
+        <v>36233.5</v>
+      </c>
+      <c r="E125" s="4">
+        <v>798.36075782775879</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>944.5</v>
+      </c>
+      <c r="B126">
+        <v>125.0066299438477</v>
+      </c>
+      <c r="D126" s="4">
+        <v>37878.5</v>
+      </c>
+      <c r="E126" s="4">
+        <v>880.12722778320313</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <v>2696</v>
+      </c>
+      <c r="D127" s="4">
+        <v>38643</v>
+      </c>
+      <c r="E127" s="4">
+        <v>992.63822937011719</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>409</v>
+      </c>
+      <c r="B128">
+        <v>77.484800338745117</v>
+      </c>
+      <c r="D128" s="4">
+        <v>24858</v>
+      </c>
+      <c r="E128" s="4">
+        <v>693.37486267089844</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>533</v>
+      </c>
+      <c r="B129">
+        <v>93.880388259887695</v>
+      </c>
+      <c r="D129" s="4">
+        <v>34563</v>
+      </c>
+      <c r="E129" s="4">
+        <v>751.13395690917969</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2</v>
+      </c>
+      <c r="B130">
+        <v>5.6568541526794434</v>
+      </c>
+      <c r="D130" s="4">
+        <v>19458</v>
+      </c>
+      <c r="E130" s="4">
+        <v>805.73892211914063</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1299.5</v>
+      </c>
+      <c r="B131">
+        <v>190.48115301132199</v>
+      </c>
+      <c r="D131" s="4">
+        <v>38631.5</v>
+      </c>
+      <c r="E131" s="4">
+        <v>886.40473175048828</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1908.5</v>
+      </c>
+      <c r="B132">
+        <v>236.5685076713562</v>
+      </c>
+      <c r="D132" s="4">
+        <v>10728</v>
+      </c>
+      <c r="E132" s="4">
+        <v>1167.5047302246089</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>0</v>
+      </c>
+      <c r="B133">
+        <v>2696</v>
+      </c>
+      <c r="D133" s="4">
+        <v>47234.5</v>
+      </c>
+      <c r="E133" s="4">
+        <v>917.29355621337891</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>520.5</v>
+      </c>
+      <c r="B134">
+        <v>101.8746604919434</v>
+      </c>
+      <c r="D134" s="4">
+        <v>39012</v>
+      </c>
+      <c r="E134" s="4">
+        <v>1142.1385688781741</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>4790</v>
+      </c>
+      <c r="B135">
+        <v>339.74904918670649</v>
+      </c>
+      <c r="D135" s="4">
+        <v>35374.5</v>
+      </c>
+      <c r="E135" s="4">
+        <v>1527.216157913208</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2311.5</v>
+      </c>
+      <c r="B136">
+        <v>246.96820068359381</v>
+      </c>
+      <c r="D136" s="4">
+        <v>15205</v>
+      </c>
+      <c r="E136" s="4">
+        <v>657.56836318969727</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>0</v>
+      </c>
+      <c r="B137">
+        <v>1022</v>
+      </c>
+      <c r="D137" s="4">
+        <v>14372</v>
+      </c>
+      <c r="E137" s="4">
+        <v>1302.261428833008</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>164.5</v>
+      </c>
+      <c r="B138">
+        <v>54.830838441848748</v>
+      </c>
+      <c r="D138" s="4">
+        <v>31679.5</v>
+      </c>
+      <c r="E138" s="4">
+        <v>796.17563247680664</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>267</v>
+      </c>
+      <c r="B139">
+        <v>66.312700748443604</v>
+      </c>
+      <c r="D139" s="4">
+        <v>31990</v>
+      </c>
+      <c r="E139" s="4">
+        <v>727.01515579223633</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>953</v>
+      </c>
+      <c r="B140">
+        <v>130.6996765136719</v>
+      </c>
+      <c r="D140" s="4">
+        <v>42113.5</v>
+      </c>
+      <c r="E140" s="4">
+        <v>922.59136199951172</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>0</v>
+      </c>
+      <c r="B141">
+        <v>2160</v>
+      </c>
+      <c r="D141" s="4">
+        <v>19816</v>
+      </c>
+      <c r="E141" s="4">
+        <v>884.49831390380859</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>7937</v>
+      </c>
+      <c r="B142">
+        <v>394.6185450553894</v>
+      </c>
+      <c r="D142" s="4">
+        <v>16188</v>
+      </c>
+      <c r="E142" s="4">
+        <v>1331.5931949615481</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <v>2696</v>
+      </c>
+      <c r="D143" s="4">
+        <v>30017</v>
+      </c>
+      <c r="E143" s="4">
+        <v>822.31219482421875</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1045.5</v>
+      </c>
+      <c r="B144">
+        <v>136.15870499610901</v>
+      </c>
+      <c r="D144" s="4">
+        <v>37149.5</v>
+      </c>
+      <c r="E144" s="4">
+        <v>776.75892639160156</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>0</v>
+      </c>
+      <c r="B145">
+        <v>1022</v>
+      </c>
+      <c r="D145" s="4">
+        <v>15626</v>
+      </c>
+      <c r="E145" s="4">
+        <v>849.08197402954102</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>319.5</v>
+      </c>
+      <c r="B146">
+        <v>101.7419309616089</v>
+      </c>
+      <c r="D146" s="4">
+        <v>46438.5</v>
+      </c>
+      <c r="E146" s="4">
+        <v>966.74372863769531</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>39</v>
+      </c>
+      <c r="B147">
+        <v>35.313708305358887</v>
+      </c>
+      <c r="D147" s="4">
+        <v>15867.5</v>
+      </c>
+      <c r="E147" s="4">
+        <v>1402.1617660522461</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>94</v>
+      </c>
+      <c r="B148">
+        <v>40.485281229019172</v>
+      </c>
+      <c r="D148" s="4">
+        <v>19420</v>
+      </c>
+      <c r="E148" s="4">
+        <v>1472.453605651855</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>50.5</v>
+      </c>
+      <c r="B149">
+        <v>28.727921724319462</v>
+      </c>
+      <c r="D149" s="4">
+        <v>24114.5</v>
+      </c>
+      <c r="E149" s="4">
+        <v>706.82852554321289</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>34</v>
+      </c>
+      <c r="B150">
+        <v>25.65685403347015</v>
+      </c>
+      <c r="D150" s="4">
+        <v>39876</v>
+      </c>
+      <c r="E150" s="4">
+        <v>900.77378082275391</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>98</v>
+      </c>
+      <c r="B151">
+        <v>55.551320672035217</v>
+      </c>
+      <c r="D151" s="4">
+        <v>74741</v>
+      </c>
+      <c r="E151" s="4">
+        <v>1800.5853042602539</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>49.5</v>
+      </c>
+      <c r="B152">
+        <v>35.899494647979743</v>
+      </c>
+      <c r="D152" s="4">
+        <v>25124</v>
+      </c>
+      <c r="E152" s="4">
+        <v>686.69722747802734</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>701</v>
+      </c>
+      <c r="B153">
+        <v>139.74893665313721</v>
+      </c>
+      <c r="D153" s="4">
+        <v>33080.5</v>
+      </c>
+      <c r="E153" s="4">
+        <v>756.6126708984375</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>170.5</v>
+      </c>
+      <c r="B154">
+        <v>67.82981014251709</v>
+      </c>
+      <c r="D154" s="4">
+        <v>24487.5</v>
+      </c>
+      <c r="E154" s="4">
+        <v>873.93541717529297</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>824.5</v>
+      </c>
+      <c r="B155">
+        <v>134.0251784324646</v>
+      </c>
+      <c r="D155" s="4">
+        <v>41665</v>
+      </c>
+      <c r="E155" s="4">
+        <v>903.0666389465332</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>50.719111919403083</v>
+      </c>
+      <c r="D156" s="4">
+        <v>25234.5</v>
+      </c>
+      <c r="E156" s="4">
+        <v>706.5543212890625</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>77.5</v>
+      </c>
+      <c r="B157">
+        <v>41.071067571640008</v>
+      </c>
+      <c r="D157" s="4">
+        <v>41727.5</v>
+      </c>
+      <c r="E157" s="4">
+        <v>930.80817794799805</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>7.5</v>
+      </c>
+      <c r="B158">
+        <v>11.414213538169861</v>
+      </c>
+      <c r="D158" s="4">
+        <v>77937</v>
+      </c>
+      <c r="E158" s="4">
+        <v>1827.8938770294189</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>42</v>
+      </c>
+      <c r="B159">
+        <v>29.090832471847531</v>
+      </c>
+      <c r="D159" s="4">
+        <v>28932.5</v>
+      </c>
+      <c r="E159" s="4">
+        <v>754.17585754394531</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>59.5</v>
+      </c>
+      <c r="B160">
+        <v>29.556348919868469</v>
+      </c>
+      <c r="D160" s="4">
+        <v>28852.5</v>
+      </c>
+      <c r="E160" s="4">
+        <v>722.60145950317383</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>126</v>
+      </c>
+      <c r="B161">
+        <v>47.473663449287407</v>
+      </c>
+      <c r="D161" s="4">
+        <v>34924</v>
+      </c>
+      <c r="E161" s="4">
+        <v>863.25066375732422</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>333</v>
+      </c>
+      <c r="B162">
+        <v>105.36599636077879</v>
+      </c>
+      <c r="D162" s="4">
+        <v>34651</v>
+      </c>
+      <c r="E162" s="4">
+        <v>941.51258087158203</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>1457.5</v>
+      </c>
+      <c r="B163">
+        <v>255.9140348434448</v>
+      </c>
+      <c r="D163" s="4">
+        <v>8607</v>
+      </c>
+      <c r="E163" s="4">
+        <v>1189.654972076416</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>385</v>
+      </c>
+      <c r="B164">
+        <v>100.7266850471497</v>
+      </c>
+      <c r="D164" s="4">
+        <v>25851.5</v>
+      </c>
+      <c r="E164" s="4">
+        <v>741.35831451416016</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>832</v>
+      </c>
+      <c r="B165">
+        <v>222.34271287918091</v>
+      </c>
+      <c r="D165" s="4">
+        <v>32915</v>
+      </c>
+      <c r="E165" s="4">
+        <v>748.39658737182617</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>223.5</v>
+      </c>
+      <c r="B166">
+        <v>62.302781581878662</v>
+      </c>
+      <c r="D166" s="4">
+        <v>37070.5</v>
+      </c>
+      <c r="E166" s="4">
+        <v>865.46021270751953</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>325</v>
+      </c>
+      <c r="B167">
+        <v>70.357443332672119</v>
+      </c>
+      <c r="D167" s="4">
+        <v>29587</v>
+      </c>
+      <c r="E167" s="4">
+        <v>898.81437683105469</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1637.5</v>
+      </c>
+      <c r="B168">
+        <v>178.88251876831049</v>
+      </c>
+      <c r="D168" s="4">
+        <v>10620</v>
+      </c>
+      <c r="E168" s="4">
+        <v>1180.111640930176</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>382</v>
+      </c>
+      <c r="B169">
+        <v>76.598727226257324</v>
+      </c>
+      <c r="D169" s="4">
+        <v>20221.5</v>
+      </c>
+      <c r="E169" s="4">
+        <v>621.77402305603027</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1104</v>
+      </c>
+      <c r="B170">
+        <v>133.87761211395261</v>
+      </c>
+      <c r="D170" s="4">
+        <v>55917.5</v>
+      </c>
+      <c r="E170" s="4">
+        <v>904.45252227783203</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>2301.5</v>
+      </c>
+      <c r="B171">
+        <v>212.54565811157229</v>
+      </c>
+      <c r="D171" s="4">
+        <v>43157</v>
+      </c>
+      <c r="E171" s="4">
+        <v>934.51248168945313</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>685</v>
+      </c>
+      <c r="B172">
+        <v>96.869731426239014</v>
+      </c>
+      <c r="D172" s="4">
+        <v>19468.5</v>
+      </c>
+      <c r="E172" s="4">
+        <v>1365.2316589355471</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>257</v>
+      </c>
+      <c r="B173">
+        <v>62.921419024467468</v>
+      </c>
+      <c r="D173" s="4">
+        <v>30823</v>
+      </c>
+      <c r="E173" s="4">
+        <v>2386.5264663696289</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1419.5</v>
+      </c>
+      <c r="B174">
+        <v>141.0681395530701</v>
+      </c>
+      <c r="D174" s="4">
+        <v>82486</v>
+      </c>
+      <c r="E174" s="4">
+        <v>2102.7502288818359</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>387.5</v>
+      </c>
+      <c r="B175">
+        <v>92.60568380355835</v>
+      </c>
+      <c r="D175" s="4">
+        <v>13542.5</v>
+      </c>
+      <c r="E175" s="4">
+        <v>625.70516777038574</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>139</v>
+      </c>
+      <c r="B176">
+        <v>46.695516467094421</v>
+      </c>
+      <c r="D176" s="4">
+        <v>23383</v>
+      </c>
+      <c r="E176" s="4">
+        <v>682.63211059570313</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>451.5</v>
+      </c>
+      <c r="B177">
+        <v>91.367217063903809</v>
+      </c>
+      <c r="D177" s="4">
+        <v>37019.5</v>
+      </c>
+      <c r="E177" s="4">
+        <v>812.67769622802734</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>111</v>
+      </c>
+      <c r="B178">
+        <v>43.547053813934333</v>
+      </c>
+      <c r="D178" s="4">
+        <v>106295</v>
+      </c>
+      <c r="E178" s="4">
+        <v>2443.596199035645</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>707</v>
+      </c>
+      <c r="B179">
+        <v>147.07652235031131</v>
+      </c>
+      <c r="D179" s="4">
+        <v>26456</v>
+      </c>
+      <c r="E179" s="4">
+        <v>728.43264389038086</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>470.5</v>
+      </c>
+      <c r="B180">
+        <v>112.3611855506897</v>
+      </c>
+      <c r="D180" s="4">
+        <v>33152.5</v>
+      </c>
+      <c r="E180" s="4">
+        <v>747.8309211730957</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>154.5</v>
+      </c>
+      <c r="B181">
+        <v>48.810193777084351</v>
+      </c>
+      <c r="D181" s="4">
+        <v>38199</v>
+      </c>
+      <c r="E181" s="4">
+        <v>854.46411514282227</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>146.5</v>
+      </c>
+      <c r="B182">
+        <v>46.427231311798103</v>
+      </c>
+      <c r="D182" s="4">
+        <v>28392</v>
+      </c>
+      <c r="E182" s="4">
+        <v>868.12501907348633</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>99</v>
+      </c>
+      <c r="B183">
+        <v>42.558873534202583</v>
+      </c>
+      <c r="D183" s="4">
+        <v>24996</v>
+      </c>
+      <c r="E183" s="4">
+        <v>2337.933055877686</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>0.5</v>
+      </c>
+      <c r="B184">
+        <v>3.4142135381698608</v>
+      </c>
+      <c r="D184" s="4">
+        <v>115492</v>
+      </c>
+      <c r="E184" s="4">
+        <v>2361.9025344848628</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>118</v>
+      </c>
+      <c r="B185">
+        <v>46.016378402709961</v>
+      </c>
+      <c r="D185" s="4">
+        <v>22655.5</v>
+      </c>
+      <c r="E185" s="4">
+        <v>674.1932258605957</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>273.5</v>
+      </c>
+      <c r="B186">
+        <v>68.978586912155151</v>
+      </c>
+      <c r="D186" s="4">
+        <v>26488.5</v>
+      </c>
+      <c r="E186" s="4">
+        <v>695.52157592773438</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>131</v>
+      </c>
+      <c r="B187">
+        <v>51.287199854850769</v>
+      </c>
+      <c r="D187" s="4">
+        <v>31645</v>
+      </c>
+      <c r="E187" s="4">
+        <v>741.69116973876953</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>68.5</v>
+      </c>
+      <c r="B188">
+        <v>31.071067690849301</v>
+      </c>
+      <c r="D188" s="4">
+        <v>37706</v>
+      </c>
+      <c r="E188" s="4">
+        <v>907.00691223144531</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>310.5</v>
+      </c>
+      <c r="B189">
+        <v>80.626391410827637</v>
+      </c>
+      <c r="D189" s="4">
+        <v>35287</v>
+      </c>
+      <c r="E189" s="4">
+        <v>934.04950714111328</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>110.5</v>
+      </c>
+      <c r="B190">
+        <v>42.727921962738037</v>
+      </c>
+      <c r="D190" s="4">
+        <v>99149</v>
+      </c>
+      <c r="E190" s="4">
+        <v>1471.962524414062</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>259.5</v>
+      </c>
+      <c r="B191">
+        <v>59.947346091270447</v>
+      </c>
+      <c r="D191" s="4">
+        <v>27131.5</v>
+      </c>
+      <c r="E191" s="4">
+        <v>738.47170639038086</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>171.5</v>
+      </c>
+      <c r="B192">
+        <v>51.522021770477288</v>
+      </c>
+      <c r="D192" s="4">
+        <v>32257</v>
+      </c>
+      <c r="E192" s="4">
+        <v>736.31008148193359</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>55</v>
+      </c>
+      <c r="B193">
+        <v>30.485281229019169</v>
+      </c>
+      <c r="D193" s="4">
+        <v>35275</v>
+      </c>
+      <c r="E193" s="4">
+        <v>851.15230560302734</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>387</v>
+      </c>
+      <c r="B194">
+        <v>83.857847332954407</v>
+      </c>
+      <c r="D194" s="4">
+        <v>27084</v>
+      </c>
+      <c r="E194" s="4">
+        <v>846.19559478759766</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>259.5</v>
+      </c>
+      <c r="B195">
+        <v>66.028410911560059</v>
+      </c>
+      <c r="D195" s="4">
+        <v>111750</v>
+      </c>
+      <c r="E195" s="4">
+        <v>1450.2430877685549</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>199</v>
+      </c>
+      <c r="B196">
+        <v>56.446161150932312</v>
+      </c>
+      <c r="D196" s="4">
+        <v>73261.5</v>
+      </c>
+      <c r="E196" s="4">
+        <v>1130.035514831543</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>149</v>
+      </c>
+      <c r="B197">
+        <v>45.636139512062073</v>
+      </c>
+      <c r="D197" s="4">
+        <v>127571</v>
+      </c>
+      <c r="E197" s="4">
+        <v>1810.6819953918459</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>39.5</v>
+      </c>
+      <c r="B198">
+        <v>24.727921605110168</v>
+      </c>
+      <c r="D198" s="4">
+        <v>21126.5</v>
+      </c>
+      <c r="E198" s="4">
+        <v>636.87263870239258</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>24</v>
+      </c>
+      <c r="B199">
+        <v>18.485281229019169</v>
+      </c>
+      <c r="D199" s="4">
+        <v>34491</v>
+      </c>
+      <c r="E199" s="4">
+        <v>753.53070831298828</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>103</v>
+      </c>
+      <c r="B200">
+        <v>62.742700695991523</v>
+      </c>
+      <c r="D200" s="4">
+        <v>90221.5</v>
+      </c>
+      <c r="E200" s="4">
+        <v>2405.0429840087891</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>35.5</v>
+      </c>
+      <c r="B201">
+        <v>33.333473086357117</v>
+      </c>
+      <c r="D201" s="4">
+        <v>11463</v>
+      </c>
+      <c r="E201" s="4">
+        <v>502.3391809463501</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>118.5</v>
+      </c>
+      <c r="B202">
+        <v>44.148754835128777</v>
+      </c>
+      <c r="D202" s="4">
+        <v>8262.5</v>
+      </c>
+      <c r="E202" s="4">
+        <v>391.60812568664551</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>60.5</v>
+      </c>
+      <c r="B203">
+        <v>31.333472967147831</v>
+      </c>
+      <c r="D203" s="4">
+        <v>15414.5</v>
+      </c>
+      <c r="E203" s="4">
+        <v>560.47430229187012</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2014"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A1818" workbookViewId="0">
+      <selection activeCell="C1850" sqref="C1818:D1850"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" s="5" t="s">
@@ -77176,7 +80035,7 @@
         <v>1285</v>
       </c>
       <c r="D185">
-        <v>157.0287899971008</v>
+        <v>157.028789997101</v>
       </c>
       <c r="G185" s="4">
         <v>22655.5</v>
